--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92489.80785949402</v>
+        <v>84845.74600546376</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219457</v>
+        <v>33937088.13219456</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>30.70785528783231</v>
       </c>
       <c r="F8" t="n">
-        <v>119.0839105424608</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>104.8891084057994</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.1812531179677</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="W8" t="n">
-        <v>119.0839105424608</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>119.0839105424608</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809191</v>
+        <v>39.3603752680919</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656964</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>41.22882262934576</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424608</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="W9" t="n">
-        <v>119.0839105424608</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>65.52873313770814</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>104.8891084058001</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>119.0839105424608</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.0839105424608</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>119.0839105424608</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.8891084057994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>149.6157531058532</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>196.9385539799572</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1545,10 +1545,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>57.09228531058756</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>152.4182932389111</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>401.5266111030793</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>246.5908803063699</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>120.3790897482012</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>214.5646102646778</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>134.9995136433082</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4.57745246284288</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>73.61925960259119</v>
       </c>
       <c r="D19" t="n">
-        <v>49.34995949258614</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2086,19 +2086,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>340.6710145143651</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>194.7281928688458</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>35.77164440601916</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>124.9554984777218</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2323,7 +2323,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>59.71919654259835</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2383,7 +2383,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>194.7281928688458</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>59.43301941557503</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>129.9221536058848</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>194.9546727805224</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>156.7012890994286</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4.71101153546102</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>31.66775530976537</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2772,7 +2772,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -2803,10 +2803,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>186.2590747244958</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>128.9395398500428</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>146.3917356253861</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>23.30082879511261</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3040,7 +3040,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>136.0250758436187</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>149.6157531058527</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>55.9668410237014</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777209</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>257.6351509699958</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>395.8702403086782</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>146.391735625387</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>52.39553255487303</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
@@ -3444,7 +3444,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>183.4872045441995</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>142.5081950638346</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>53.19117033386334</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>17.75123914303118</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3748,13 +3748,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>281.0972088665291</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>373.7232621786839</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>65.03738524811791</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>124.9554984777218</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>250.914931001492</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>109.5540470185009</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>50.2229309253779</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4155,7 +4155,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>135.1589024269029</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.7620855184072</v>
+        <v>160.8315268133906</v>
       </c>
       <c r="C8" t="n">
-        <v>235.7620855184072</v>
+        <v>160.8315268133906</v>
       </c>
       <c r="D8" t="n">
-        <v>235.7620855184072</v>
+        <v>40.54474848767198</v>
       </c>
       <c r="E8" t="n">
-        <v>235.7620855184072</v>
+        <v>9.526712843396915</v>
       </c>
       <c r="F8" t="n">
-        <v>115.4753071926892</v>
+        <v>9.526712843396915</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396863</v>
+        <v>9.526712843396915</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396863</v>
+        <v>9.526712843396915</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585568</v>
+        <v>23.57954741585579</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558026</v>
+        <v>55.41632306558055</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318069</v>
+        <v>103.1313969318074</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183093</v>
+        <v>162.3261653183101</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590929</v>
+        <v>228.191750759094</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326577</v>
+        <v>295.1231102326593</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336419</v>
+        <v>358.3244950336438</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455664</v>
+        <v>412.2654147455686</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245007</v>
+        <v>452.7727990245031</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698431</v>
+        <v>476.3356421698458</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698431</v>
+        <v>401.4050834648278</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698431</v>
+        <v>401.4050834648278</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698431</v>
+        <v>401.4050834648278</v>
       </c>
       <c r="V8" t="n">
-        <v>476.3356421698431</v>
+        <v>281.1183051391092</v>
       </c>
       <c r="W8" t="n">
-        <v>356.0488638441252</v>
+        <v>281.1183051391092</v>
       </c>
       <c r="X8" t="n">
-        <v>235.7620855184072</v>
+        <v>281.1183051391092</v>
       </c>
       <c r="Y8" t="n">
-        <v>235.7620855184072</v>
+        <v>281.1183051391092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>134.4649821891997</v>
+        <v>49.28466765965136</v>
       </c>
       <c r="C9" t="n">
-        <v>134.4649821891997</v>
+        <v>49.28466765965136</v>
       </c>
       <c r="D9" t="n">
-        <v>134.4649821891997</v>
+        <v>49.28466765965136</v>
       </c>
       <c r="E9" t="n">
-        <v>134.4649821891997</v>
+        <v>49.28466765965136</v>
       </c>
       <c r="F9" t="n">
-        <v>134.4649821891997</v>
+        <v>49.28466765965136</v>
       </c>
       <c r="G9" t="n">
-        <v>49.28466765965133</v>
+        <v>49.28466765965136</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396863</v>
+        <v>9.526712843396915</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114681</v>
+        <v>16.4367847511469</v>
       </c>
       <c r="J9" t="n">
-        <v>35.39855022437504</v>
+        <v>67.70899752367966</v>
       </c>
       <c r="K9" t="n">
-        <v>67.80722760369093</v>
+        <v>100.1176749029957</v>
       </c>
       <c r="L9" t="n">
-        <v>116.3926722602815</v>
+        <v>143.6951411186853</v>
       </c>
       <c r="M9" t="n">
-        <v>234.2857436973177</v>
+        <v>194.5479887761014</v>
       </c>
       <c r="N9" t="n">
-        <v>352.1788151343538</v>
+        <v>246.7467599936385</v>
       </c>
       <c r="O9" t="n">
-        <v>399.9304929406865</v>
+        <v>294.4984377999714</v>
       </c>
       <c r="P9" t="n">
-        <v>438.2554242425485</v>
+        <v>332.8233691018337</v>
       </c>
       <c r="Q9" t="n">
-        <v>463.8746258735237</v>
+        <v>358.442570732809</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698431</v>
+        <v>476.3356421698458</v>
       </c>
       <c r="S9" t="n">
-        <v>416.6838142238132</v>
+        <v>476.3356421698458</v>
       </c>
       <c r="T9" t="n">
-        <v>375.0385388406357</v>
+        <v>476.3356421698458</v>
       </c>
       <c r="U9" t="n">
-        <v>375.0385388406357</v>
+        <v>356.0488638441271</v>
       </c>
       <c r="V9" t="n">
-        <v>254.7517605149177</v>
+        <v>235.7620855184085</v>
       </c>
       <c r="W9" t="n">
-        <v>134.4649821891997</v>
+        <v>115.4753071926899</v>
       </c>
       <c r="X9" t="n">
-        <v>134.4649821891997</v>
+        <v>49.28466765965136</v>
       </c>
       <c r="Y9" t="n">
-        <v>134.4649821891997</v>
+        <v>49.28466765965136</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396863</v>
+        <v>250.1002694948342</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396863</v>
+        <v>250.1002694948342</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396863</v>
+        <v>129.8134911691155</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396863</v>
+        <v>129.8134911691155</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396863</v>
+        <v>9.526712843396915</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396863</v>
+        <v>9.526712843396915</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396863</v>
+        <v>9.526712843396915</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396863</v>
+        <v>9.526712843396915</v>
       </c>
       <c r="J10" t="n">
-        <v>21.42271513642507</v>
+        <v>108.0024003011151</v>
       </c>
       <c r="K10" t="n">
-        <v>139.3157865734613</v>
+        <v>225.8954717381519</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6426948995728</v>
+        <v>250.9111875026092</v>
       </c>
       <c r="M10" t="n">
-        <v>191.0182597110278</v>
+        <v>277.2867523140643</v>
       </c>
       <c r="N10" t="n">
-        <v>216.7666725435524</v>
+        <v>303.0351651465891</v>
       </c>
       <c r="O10" t="n">
-        <v>240.5494992957708</v>
+        <v>326.8179918988076</v>
       </c>
       <c r="P10" t="n">
-        <v>358.442570732807</v>
+        <v>358.442570732809</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698431</v>
+        <v>476.3356421698458</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698431</v>
+        <v>476.3356421698458</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698431</v>
+        <v>370.3870478205528</v>
       </c>
       <c r="T10" t="n">
-        <v>476.3356421698431</v>
+        <v>370.3870478205528</v>
       </c>
       <c r="U10" t="n">
-        <v>356.0488638441252</v>
+        <v>370.3870478205528</v>
       </c>
       <c r="V10" t="n">
-        <v>235.7620855184072</v>
+        <v>370.3870478205528</v>
       </c>
       <c r="W10" t="n">
-        <v>115.4753071926892</v>
+        <v>370.3870478205528</v>
       </c>
       <c r="X10" t="n">
-        <v>115.4753071926892</v>
+        <v>370.3870478205528</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.526712843396863</v>
+        <v>370.3870478205528</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1934.02800696283</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C11" t="n">
-        <v>1495.885534146253</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="D11" t="n">
-        <v>1059.975749320698</v>
+        <v>645.6370751724646</v>
       </c>
       <c r="E11" t="n">
-        <v>626.2010044789927</v>
+        <v>645.6370751724646</v>
       </c>
       <c r="F11" t="n">
-        <v>198.3335748882004</v>
+        <v>645.6370751724646</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895475</v>
+        <v>246.1343838519418</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J11" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867028</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
@@ -5062,31 +5062,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043086</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.0817647851425</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C13" t="n">
-        <v>616.0817647851425</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D13" t="n">
-        <v>616.0817647851425</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E13" t="n">
-        <v>446.3237610358797</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F13" t="n">
-        <v>269.6167069976359</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G13" t="n">
-        <v>104.8755266101543</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376306</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351144</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399887</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270317</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856609</v>
+        <v>1665.488002587006</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.320054190021</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041296</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1748.628930102402</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="C14" t="n">
-        <v>1310.486457285825</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="D14" t="n">
-        <v>874.5766724602698</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="E14" t="n">
-        <v>874.5766724602698</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
         <v>276.0532770435809</v>
@@ -5284,7 +5284,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W14" t="n">
-        <v>1748.628930102402</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X14" t="n">
-        <v>1748.628930102402</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="Y14" t="n">
-        <v>1748.628930102402</v>
+        <v>1122.013229783223</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
@@ -5363,10 +5363,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5436,25 +5436,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M16" t="n">
-        <v>818.7256495113488</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5472,16 +5472,16 @@
         <v>1973.653814855378</v>
       </c>
       <c r="V16" t="n">
-        <v>1973.653814855378</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W16" t="n">
-        <v>1756.921885295098</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.53013062851</v>
+        <v>1441.306552059221</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.110459942618</v>
+        <v>1213.88688137333</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>489.9727137219384</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C17" t="n">
-        <v>51.83024090536168</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895473</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895473</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435804</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V17" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W17" t="n">
-        <v>1743.700871327882</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X17" t="n">
-        <v>1324.558407907193</v>
+        <v>1688.947492710957</v>
       </c>
       <c r="Y17" t="n">
-        <v>916.2722842068462</v>
+        <v>1280.66136901061</v>
       </c>
     </row>
     <row r="18">
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.0817647851416</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C19" t="n">
-        <v>443.5200532683665</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="D19" t="n">
-        <v>393.6716093364613</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E19" t="n">
-        <v>223.9136055871985</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1329.17407462327</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N19" t="n">
-        <v>1898.931789584804</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041287</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2360.327577447737</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C20" t="n">
-        <v>1922.18510463116</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D20" t="n">
-        <v>1578.072968758064</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E20" t="n">
-        <v>1144.298223916359</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5770,7 +5770,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X20" t="n">
-        <v>2360.327577447737</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="Y20" t="n">
-        <v>2360.327577447737</v>
+        <v>884.8517156860543</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810428</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>732.1113136517137</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C22" t="n">
-        <v>559.5496021349386</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D22" t="n">
-        <v>393.6716093364613</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="E22" t="n">
-        <v>223.9136055871985</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>393.4422361027644</v>
       </c>
       <c r="L22" t="n">
-        <v>326.783117436994</v>
+        <v>935.5229194890233</v>
       </c>
       <c r="M22" t="n">
-        <v>910.9641928553089</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N22" t="n">
-        <v>1480.721907816843</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5940,22 +5940,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2234.109902217715</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1955.723270266458</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1668.767762136888</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W22" t="n">
-        <v>1396.74135772318</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X22" t="n">
-        <v>1151.349603056593</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1320.76150051161</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C23" t="n">
-        <v>882.6190276950331</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D23" t="n">
         <v>446.7092428694776</v>
@@ -5980,13 +5980,13 @@
         <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
         <v>276.0532770435809</v>
@@ -5995,7 +5995,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6007,7 +6007,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.23390516675</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>1725.616955100576</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W23" t="n">
-        <v>1320.76150051161</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X23" t="n">
-        <v>1320.76150051161</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="Y23" t="n">
-        <v>1320.76150051161</v>
+        <v>884.8517156860543</v>
       </c>
     </row>
     <row r="24">
@@ -6047,46 +6047,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P24" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q24" t="n">
         <v>1614.947661807679</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>858.3289888817353</v>
+        <v>758.6107344189456</v>
       </c>
       <c r="C25" t="n">
-        <v>685.7672773649603</v>
+        <v>586.0490229021706</v>
       </c>
       <c r="D25" t="n">
-        <v>519.889284566483</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E25" t="n">
-        <v>519.889284566483</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F25" t="n">
-        <v>343.1822305282392</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G25" t="n">
-        <v>178.4410501407576</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>413.3628026016839</v>
+        <v>481.9462364092379</v>
       </c>
       <c r="M25" t="n">
-        <v>997.5438780199987</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N25" t="n">
-        <v>1567.301592981533</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O25" t="n">
-        <v>2104.736723555076</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2205.505779732759</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>2081.94094549648</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.98543736691</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W25" t="n">
-        <v>1522.959032953202</v>
+        <v>1423.240778490412</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.567278286614</v>
+        <v>1177.849023823825</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.147607600722</v>
+        <v>950.4293531379328</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1941.185114027048</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C26" t="n">
-        <v>1941.185114027048</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D26" t="n">
-        <v>1505.275329201492</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>1071.500584359787</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>643.6331547689952</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G26" t="n">
-        <v>244.1304634484723</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K26" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6244,7 +6244,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6256,22 +6256,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2202.043447044273</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2202.043447044273</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>2202.043447044273</v>
       </c>
       <c r="W26" t="n">
-        <v>2360.327577447737</v>
+        <v>2202.043447044273</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.185114027048</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y26" t="n">
-        <v>1941.185114027048</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="27">
@@ -6284,31 +6284,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J27" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L27" t="n">
         <v>551.5786779960906</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>584.0941331591162</v>
+        <v>758.6107344189456</v>
       </c>
       <c r="C28" t="n">
-        <v>584.0941331591162</v>
+        <v>758.6107344189456</v>
       </c>
       <c r="D28" t="n">
-        <v>584.0941331591162</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E28" t="n">
         <v>584.0941331591162</v>
@@ -6381,28 +6381,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L28" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M28" t="n">
-        <v>1329.17407462327</v>
+        <v>1340.193340120865</v>
       </c>
       <c r="N28" t="n">
-        <v>1898.931789584804</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2328.339945821711</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T28" t="n">
-        <v>2086.092721725118</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1807.706089773861</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V28" t="n">
-        <v>1520.750581644291</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W28" t="n">
-        <v>1248.724177230583</v>
+        <v>1423.240778490412</v>
       </c>
       <c r="X28" t="n">
-        <v>1003.332422563995</v>
+        <v>1177.849023823825</v>
       </c>
       <c r="Y28" t="n">
-        <v>775.9127518781033</v>
+        <v>950.4293531379328</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1355.033554032792</v>
+        <v>1532.8989903267</v>
       </c>
       <c r="C29" t="n">
-        <v>916.8910812162151</v>
+        <v>1532.8989903267</v>
       </c>
       <c r="D29" t="n">
-        <v>480.9812963906596</v>
+        <v>1096.989205501145</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895474</v>
+        <v>663.2144606594397</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>235.3470310686475</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X29" t="n">
-        <v>2189.619248218046</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y29" t="n">
-        <v>1781.3331245177</v>
+        <v>1532.8989903267</v>
       </c>
     </row>
     <row r="30">
@@ -6521,31 +6521,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L30" t="n">
         <v>551.5786779960906</v>
@@ -6597,58 +6597,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>743.6816307030854</v>
+        <v>890.893515694255</v>
       </c>
       <c r="C31" t="n">
-        <v>571.1199191863103</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D31" t="n">
-        <v>405.241926387833</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E31" t="n">
-        <v>235.4839226385703</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F31" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1106.33113894078</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.355695376305</v>
+        <v>875.5973915434844</v>
       </c>
       <c r="N31" t="n">
-        <v>1539.854607180195</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527957</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
         <v>1973.653814855378</v>
@@ -6657,16 +6657,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W31" t="n">
-        <v>1408.311674774552</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1162.919920107964</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y31" t="n">
-        <v>935.5002494220726</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W32" t="n">
-        <v>2360.327577447737</v>
+        <v>2182.462141153827</v>
       </c>
       <c r="X32" t="n">
-        <v>2360.327577447737</v>
+        <v>1763.319677733138</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.200554108492</v>
+        <v>1355.033554032792</v>
       </c>
     </row>
     <row r="33">
@@ -6758,31 +6758,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L33" t="n">
         <v>551.5786779960906</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.081764785142</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C34" t="n">
-        <v>616.081764785142</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D34" t="n">
-        <v>450.2037719866647</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E34" t="n">
-        <v>280.445768237402</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>103.7387141991582</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
@@ -6864,13 +6864,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M34" t="n">
-        <v>1236.93553127931</v>
+        <v>818.7256495113487</v>
       </c>
       <c r="N34" t="n">
-        <v>1364.434443083199</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O34" t="n">
         <v>1657.620488527956</v>
@@ -6882,28 +6882,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270317</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856609</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.320054190021</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041292</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>706.9467691017966</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C35" t="n">
-        <v>706.9467691017966</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D35" t="n">
-        <v>706.9467691017966</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E35" t="n">
-        <v>706.9467691017966</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F35" t="n">
-        <v>706.9467691017966</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
-        <v>307.4440777812737</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V35" t="n">
-        <v>1957.244257596361</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W35" t="n">
-        <v>1552.388803007394</v>
+        <v>1748.687396312123</v>
       </c>
       <c r="X35" t="n">
-        <v>1133.246339586704</v>
+        <v>1329.544932891434</v>
       </c>
       <c r="Y35" t="n">
-        <v>1133.246339586704</v>
+        <v>921.2588091910869</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
-        <v>858.9930882810432</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S36" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T36" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U36" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V36" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7071,58 +7071,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>890.8935156942559</v>
+        <v>743.6816307030845</v>
       </c>
       <c r="C37" t="n">
-        <v>743.0230756686125</v>
+        <v>743.6816307030845</v>
       </c>
       <c r="D37" t="n">
-        <v>577.1450828701352</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E37" t="n">
-        <v>407.3870791208724</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M37" t="n">
-        <v>1236.93553127931</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N37" t="n">
-        <v>1364.434443083199</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527957</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
         <v>1973.653814855378</v>
@@ -7131,16 +7131,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X37" t="n">
-        <v>890.8935156942559</v>
+        <v>1162.919920107963</v>
       </c>
       <c r="Y37" t="n">
-        <v>890.8935156942559</v>
+        <v>935.5002494220716</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1106.599419841793</v>
+        <v>1488.706182588659</v>
       </c>
       <c r="C38" t="n">
-        <v>668.4569470252168</v>
+        <v>1488.706182588659</v>
       </c>
       <c r="D38" t="n">
-        <v>232.5471621996613</v>
+        <v>1052.796397763103</v>
       </c>
       <c r="E38" t="n">
-        <v>232.5471621996613</v>
+        <v>619.0216529213981</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895474</v>
+        <v>191.1542233306058</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W38" t="n">
-        <v>2360.327577447737</v>
+        <v>1915.005753073566</v>
       </c>
       <c r="X38" t="n">
-        <v>1941.185114027048</v>
+        <v>1915.005753073566</v>
       </c>
       <c r="Y38" t="n">
-        <v>1532.898990326701</v>
+        <v>1915.005753073566</v>
       </c>
     </row>
     <row r="39">
@@ -7235,40 +7235,40 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L39" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>732.1113136517137</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C40" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D40" t="n">
-        <v>393.6716093364613</v>
+        <v>277.6420604698887</v>
       </c>
       <c r="E40" t="n">
         <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
         <v>192.6919004158277</v>
@@ -7338,16 +7338,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>688.1212571728194</v>
+        <v>828.1746199579899</v>
       </c>
       <c r="M40" t="n">
-        <v>1272.302332591134</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N40" t="n">
-        <v>1842.060047552668</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O40" t="n">
-        <v>1959.82592890043</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P40" t="n">
         <v>2105.896438675981</v>
@@ -7356,28 +7356,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1955.723270266458</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1668.767762136888</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1396.74135772318</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>1151.349603056593</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.555602307689</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C41" t="n">
-        <v>1166.555602307689</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>730.6458174821332</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>730.6458174821332</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V41" t="n">
-        <v>1997.710627381563</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W41" t="n">
-        <v>1592.855172792597</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="X41" t="n">
-        <v>1592.855172792597</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="Y41" t="n">
-        <v>1592.855172792597</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="42">
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L42" t="n">
         <v>551.5786779960906</v>
@@ -7529,13 +7529,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.1113136517137</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C43" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D43" t="n">
-        <v>393.6716093364613</v>
+        <v>277.6420604698887</v>
       </c>
       <c r="E43" t="n">
-        <v>223.9136055871985</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>875.5973915434845</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1445.355106505019</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
-        <v>1982.790237078562</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.109902217715</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1955.723270266458</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1668.767762136888</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1396.74135772318</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>1151.349603056593</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
         <v>47.20655154895472</v>
@@ -7648,19 +7648,19 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
         <v>1775.969506973259</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662533</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662533</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="X44" t="n">
-        <v>2209.200554108492</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>1997.710627381563</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q45" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R45" t="n">
         <v>1676.651116233592</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895472</v>
@@ -7812,7 +7812,7 @@
         <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M46" t="n">
         <v>910.9641928553085</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1837.129670989819</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1837.129670989819</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1565.103266576111</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.711511909523</v>
+        <v>1307.346458603728</v>
       </c>
       <c r="Y46" t="n">
-        <v>1092.291841223631</v>
+        <v>1079.926787917837</v>
       </c>
     </row>
   </sheetData>
@@ -8531,19 +8531,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>32.63681545384285</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>5.05856408171843</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>67.71739775719226</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>66.35787900959531</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>106.4970253946639</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>99.33766198190335</v>
+        <v>99.33766198190392</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3143359208629946</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>98.52803488912309</v>
+        <v>11.38814337090594</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340653</v>
+        <v>104.8520877340658</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>177.1920849464607</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
-        <v>175.7179764032071</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>158.2045317475395</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>105.0002374943217</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>410.7470639734279</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>156.7304232042869</v>
       </c>
       <c r="M25" t="n">
         <v>458.158265737157</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.27619576520601</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371571</v>
+        <v>104.3008170116721</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>158.2045317475395</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>177.1920849464602</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334016</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,16 +10512,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>175.7179764032063</v>
       </c>
       <c r="O34" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10758,13 +10758,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639926</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>141.468043217344</v>
       </c>
       <c r="M40" t="n">
         <v>458.1582657371569</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>45.75904403825052</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11229,16 +11229,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P43" t="n">
-        <v>192.4544649334025</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11463,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371568</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -11472,7 +11472,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>156.7304232042861</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>302.9526642375972</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>312.4667764348385</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>398.7291421054554</v>
       </c>
       <c r="F8" t="n">
-        <v>304.5048447524235</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>292.1158482464164</v>
+        <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
         <v>282.3584801445919</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796774</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
@@ -23080,13 +23080,13 @@
         <v>256.599767943293</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>239.9068700230503</v>
       </c>
       <c r="W8" t="n">
-        <v>281.7229895006162</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440216</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23114,7 +23114,7 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656962</v>
       </c>
       <c r="T9" t="n">
-        <v>86.83090070601293</v>
+        <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5598441976481</v>
+        <v>55.47593365518671</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615985</v>
+        <v>78.0424322161592</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167714</v>
+        <v>64.38561618167648</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>87.79002826580066</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -23178,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>70.8165219893358</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>45.13530232803109</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>55.8560729553999</v>
       </c>
       <c r="G10" t="n">
         <v>163.7654023385416</v>
@@ -23199,7 +23199,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.6621924374279</v>
+        <v>82.66219243742788</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616407</v>
+        <v>13.56162857616403</v>
       </c>
       <c r="S10" t="n">
-        <v>154.6870177308997</v>
+        <v>49.79790932509961</v>
       </c>
       <c r="T10" t="n">
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>156.5554896577346</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058131</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>150.2222298271106</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>120.2563655732334</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>245.8919113014644</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>70.08578196157148</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>73.92833470388969</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>90.51954388101055</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>22.06214419180498</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>154.2160197367071</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>69.52134278359603</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>54.7415301048936</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>287.0370611367505</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>426.973234514457</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>97.21683479901613</v>
       </c>
       <c r="D19" t="n">
-        <v>114.8692533779064</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>90.87967246293476</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>220.2228459176366</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4475684644734</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>114.8692533779057</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>196.7607880211028</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>220.2228459176366</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>104.7861934549175</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>1.098466408592417</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>72.06966316100625</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>52.95224991615032</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -24606,10 +24606,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>159.5082013350315</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>111.3145178010425</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>209.2485896828218</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -24745,7 +24745,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>286.0114989364396</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>24.44435877622121</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>151.6391547027487</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>264.7818241994582</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>254.5875093574904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>107.1269275599054</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>114.8692533779066</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25168,10 +25168,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>9.389184971532885</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>4.936659734398802</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.4443587762203</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>111.8236803156195</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>240.1015507506849</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>252.999469343483</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25453,13 +25453,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>257.8515264887133</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>142.4915464283553</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>41.22777660779849</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>103.0230384636522</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>114.8692533779057</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>182.8461170869189</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -25924,13 +25924,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>305.3969917679815</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>139.6775016064193</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>140.4438632048416</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>89939.57390590705</v>
+        <v>89939.57390590751</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>398748.7574545976</v>
+        <v>398748.7574545975</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>398748.7574545974</v>
+        <v>398748.7574545973</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>398748.7574545974</v>
+        <v>398748.7574545973</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>398748.7574545974</v>
+        <v>398748.7574545973</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>398748.7574545974</v>
+        <v>398748.7574545973</v>
       </c>
     </row>
     <row r="15">
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>36428.59575072095</v>
+        <v>36428.59575072113</v>
       </c>
       <c r="E2" t="n">
         <v>165162.4498658582</v>
@@ -26328,28 +26328,28 @@
         <v>165162.4498658581</v>
       </c>
       <c r="G2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="H2" t="n">
         <v>165162.4498658581</v>
       </c>
       <c r="I2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="J2" t="n">
         <v>165162.4498658581</v>
       </c>
       <c r="K2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="L2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="M2" t="n">
         <v>165162.4498658581</v>
       </c>
       <c r="N2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="O2" t="n">
         <v>165162.4498658581</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730577</v>
+        <v>117708.4675730584</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180444</v>
+        <v>439858.2450180438</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310194</v>
+        <v>30139.06600310211</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597481</v>
+        <v>117374.5815597479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5042.7809476819</v>
+        <v>5042.780947681927</v>
       </c>
       <c r="E4" t="n">
-        <v>13837.47714308861</v>
+        <v>13837.4771430886</v>
       </c>
       <c r="F4" t="n">
         <v>13837.4771430886</v>
@@ -26444,7 +26444,7 @@
         <v>13837.4771430886</v>
       </c>
       <c r="K4" t="n">
-        <v>13837.47714308861</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="L4" t="n">
         <v>13837.4771430886</v>
@@ -26459,7 +26459,7 @@
         <v>13837.4771430886</v>
       </c>
       <c r="P4" t="n">
-        <v>13837.47714308859</v>
+        <v>13837.47714308861</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239236</v>
+        <v>42922.5622723924</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963782</v>
@@ -26487,31 +26487,31 @@
         <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-129245.2150424111</v>
+        <v>-130412.1138385627</v>
       </c>
       <c r="E6" t="n">
-        <v>-334584.3535049126</v>
+        <v>-335138.2339481339</v>
       </c>
       <c r="F6" t="n">
-        <v>105273.8915131316</v>
+        <v>104720.0110699098</v>
       </c>
       <c r="G6" t="n">
-        <v>105273.8915131318</v>
+        <v>104720.0110699098</v>
       </c>
       <c r="H6" t="n">
-        <v>105273.8915131317</v>
+        <v>104720.0110699098</v>
       </c>
       <c r="I6" t="n">
-        <v>105273.8915131318</v>
+        <v>104720.0110699098</v>
       </c>
       <c r="J6" t="n">
-        <v>105273.8915131317</v>
+        <v>104720.0110699098</v>
       </c>
       <c r="K6" t="n">
-        <v>105273.8915131317</v>
+        <v>104720.0110699098</v>
       </c>
       <c r="L6" t="n">
-        <v>75134.8255100298</v>
+        <v>74580.94506680763</v>
       </c>
       <c r="M6" t="n">
-        <v>-12100.69004661642</v>
+        <v>-12654.57048983813</v>
       </c>
       <c r="N6" t="n">
-        <v>105273.8915131318</v>
+        <v>104720.0110699097</v>
       </c>
       <c r="O6" t="n">
-        <v>105273.8915131317</v>
+        <v>104720.0110699098</v>
       </c>
       <c r="P6" t="n">
-        <v>105273.8915131317</v>
+        <v>104720.0110699097</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480465</v>
+        <v>94.25048217480516</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424608</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619342</v>
@@ -26807,28 +26807,28 @@
         <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
         <v>590.081894361934</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480465</v>
+        <v>94.25048217480516</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184165</v>
+        <v>372.451445918416</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424608</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194736</v>
+        <v>470.9979838194728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424608</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194736</v>
+        <v>470.9979838194728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424608</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194736</v>
+        <v>470.9979838194728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529832</v>
+        <v>0.3788964107529852</v>
       </c>
       <c r="H8" t="n">
-        <v>3.88037286662399</v>
+        <v>3.880372866624011</v>
       </c>
       <c r="I8" t="n">
-        <v>14.6074038755544</v>
+        <v>14.60740387555448</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214604</v>
+        <v>32.15835924214621</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931983</v>
+        <v>48.19704430932009</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990145</v>
+        <v>59.79269533990178</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462982</v>
+        <v>66.53089438463017</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168173</v>
+        <v>67.6074338116821</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725675</v>
+        <v>63.83978262725709</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679247</v>
+        <v>54.48577748679276</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670125</v>
+        <v>40.91654977670147</v>
       </c>
       <c r="R8" t="n">
-        <v>23.8008516619621</v>
+        <v>23.80085166196223</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033613</v>
+        <v>8.634101960033661</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071185</v>
+        <v>1.658619038071194</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023865</v>
+        <v>0.03031171286023882</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250515</v>
+        <v>0.2027274522250526</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857735</v>
+        <v>1.957920393857745</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888836</v>
+        <v>6.979870613888874</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780629</v>
+        <v>19.1532984578064</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688474</v>
+        <v>32.73603775688492</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211042</v>
+        <v>44.01764264211066</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526853</v>
+        <v>51.3665127852688</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286548</v>
+        <v>52.72603153286577</v>
       </c>
       <c r="O9" t="n">
-        <v>48.2340179861946</v>
+        <v>48.23401798619486</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006269</v>
+        <v>38.7120518200629</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542938</v>
+        <v>25.87798144542953</v>
       </c>
       <c r="R9" t="n">
-        <v>12.5868851477975</v>
+        <v>12.58688514779757</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531108</v>
+        <v>3.765573509531128</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457117</v>
+        <v>0.8171338973457162</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322708</v>
+        <v>0.01333733238322715</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.169959885888992</v>
+        <v>0.1699598858889929</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540312</v>
+        <v>1.51109789454032</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643506</v>
+        <v>5.111157295643533</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235173</v>
+        <v>12.0161639323518</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055743</v>
+        <v>19.74624856055753</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207796</v>
+        <v>25.26839976207809</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803535</v>
+        <v>26.64198465803549</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063094</v>
+        <v>26.00849781063108</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547316</v>
+        <v>24.0230573254733</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333771</v>
+        <v>20.55587565333782</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.2318228083955</v>
+        <v>14.23182280839558</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517764</v>
+        <v>7.642014505517806</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083613</v>
+        <v>2.96193728408363</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075109</v>
+        <v>0.7261922397075149</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308664</v>
+        <v>0.009270539230308714</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32642,28 +32642,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33116,28 +33116,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
@@ -34380,28 +34380,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.194782396423</v>
+        <v>14.19478239642308</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214605</v>
+        <v>32.15835924214622</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931984</v>
+        <v>48.19704430932006</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990146</v>
+        <v>59.79269533990174</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462982</v>
+        <v>66.53089438463019</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168172</v>
+        <v>67.60743381168209</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725674</v>
+        <v>63.83978262725714</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679247</v>
+        <v>54.48577748679276</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670123</v>
+        <v>40.91654977670146</v>
       </c>
       <c r="R8" t="n">
-        <v>23.8008516619621</v>
+        <v>23.80085166196227</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888837</v>
+        <v>6.979870613888872</v>
       </c>
       <c r="J9" t="n">
-        <v>19.1532984578063</v>
+        <v>51.79011391164925</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688474</v>
+        <v>32.73603775688493</v>
       </c>
       <c r="L9" t="n">
-        <v>49.07620672382885</v>
+        <v>44.01764264211066</v>
       </c>
       <c r="M9" t="n">
-        <v>119.0839105424608</v>
+        <v>51.36651278526881</v>
       </c>
       <c r="N9" t="n">
-        <v>119.0839105424608</v>
+        <v>52.72603153286576</v>
       </c>
       <c r="O9" t="n">
-        <v>48.2340179861946</v>
+        <v>48.23401798619486</v>
       </c>
       <c r="P9" t="n">
-        <v>38.7120518200627</v>
+        <v>38.71205182006292</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542938</v>
+        <v>25.87798144542955</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779749</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235173</v>
+        <v>99.47039137143247</v>
       </c>
       <c r="K10" t="n">
-        <v>119.0839105424608</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="L10" t="n">
-        <v>25.58273568294095</v>
+        <v>25.2683997620781</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803534</v>
+        <v>26.64198465803548</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063093</v>
+        <v>26.00849781063107</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547316</v>
+        <v>24.0230573254733</v>
       </c>
       <c r="P10" t="n">
-        <v>119.0839105424608</v>
+        <v>31.94401902424374</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424608</v>
+        <v>119.0839105424614</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
@@ -35424,7 +35424,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548414</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263759</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>309.1157135712378</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35664,10 +35664,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
         <v>117.855135640546</v>
@@ -35725,19 +35725,19 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
-        <v>304.5047560030955</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35898,10 +35898,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35962,7 +35962,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>277.1599674523493</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,28 +36117,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562291</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36220,10 +36220,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>202.7781168554916</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>529.7024996782377</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36460,7 +36460,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366646</v>
+        <v>281.8524450409515</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
@@ -36536,10 +36536,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>139.7481869072826</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062841</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>236.2244456364492</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>277.1599674523495</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,10 +36846,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L31" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>309.1157135712374</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654051</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,10 +37083,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M34" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030947</v>
       </c>
       <c r="O34" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37399,16 +37399,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
@@ -37478,16 +37478,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847541</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,19 +37539,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.076641276667</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>266.5900650540085</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P40" t="n">
-        <v>147.545969470254</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766673</v>
@@ -37794,10 +37794,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P43" t="n">
-        <v>294.241390365406</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233713</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>590.081894361934</v>
@@ -38192,13 +38192,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>258.5173486362896</v>
+        <v>258.5173486362901</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
